--- a/biology/Zoologie/Gracillaria/Gracillaria.xlsx
+++ b/biology/Zoologie/Gracillaria/Gracillaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gracillaria est un genre de petits lépidoptères (papillons) de la famille des Gracillariidae.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 janvier 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 janvier 2021) :
 Gracillaria albicapitata Issiki, 1930
 Gracillaria arsenievi (Ermolaev, 1977)
 Gracillaria japonica Kumata, 1982
 Gracillaria loriolella Frey, 1881
 Gracillaria syringella (Fabricius, 1794)
 Gracillaria ussuriella (Ermolaev, 1977)
-Selon Catalogue of Life                                   (21 janvier 2023)[2] :
+Selon Catalogue of Life                                   (21 janvier 2023) :
 Gracillaria albicapitata Issiki, 1930
 Gracillaria arsenievi (Ermolaev, 1977)
 Gracillaria chalcanthes (Meyrick, 1894)
@@ -557,9 +571,11 @@
           <t>Espèces présentes en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (11 octobre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (11 octobre 2021) :
 Gracillaria loriolella
 Gracillaria syringella</t>
         </is>
